--- a/Gantt-projektplanlægger.xlsx
+++ b/Gantt-projektplanlægger.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69CB8AA2-1BCC-4B30-A743-A985B93270C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{69CB8AA2-1BCC-4B30-A743-A985B93270C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5A46FD-4A69-4E68-9A93-3CA4490BEB95}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,6 +627,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -662,21 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -854,6 +854,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,8 +1093,8 @@
   </sheetPr>
   <dimension ref="B1:BP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1130,69 +1134,69 @@
         <v>1</v>
       </c>
       <c r="K2" s="13"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
       <c r="Q2" s="14"/>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="28"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="33"/>
       <c r="W2" s="15"/>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="30"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="35"/>
       <c r="AA2" s="16"/>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
       <c r="AP2" s="20"/>
       <c r="AQ2" s="20"/>
     </row>
     <row r="3" spans="2:68" s="9" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="29" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -1219,13 +1223,13 @@
       <c r="AB3" s="8"/>
     </row>
     <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="3">
         <v>39</v>
       </c>
@@ -1382,23 +1386,23 @@
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="2:68" ht="21" x14ac:dyDescent="0.5">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="22">
         <v>39</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="22">
         <v>13</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="22">
         <v>39</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23">
         <v>0.05</v>
       </c>
     </row>
@@ -1407,60 +1411,60 @@
         <v>27</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="34">
+      <c r="D6" s="22">
         <v>39</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="22">
         <v>4</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:68" ht="17" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="34">
+      <c r="D8" s="22">
         <v>41</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="22">
         <v>12</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="34">
+      <c r="D9" s="22">
         <v>41</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="22">
         <v>7</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1471,15 +1475,15 @@
       <c r="C10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="22">
         <v>41</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="22">
         <v>2</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1490,15 +1494,15 @@
       <c r="C11" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="22">
         <v>41</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="22">
         <v>2</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1509,15 +1513,15 @@
       <c r="C12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="22">
         <v>43</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="22">
         <v>2</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35">
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1528,54 +1532,54 @@
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="22">
         <v>45</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="22">
         <v>4</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35">
+      <c r="D15" s="24"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="34">
+      <c r="D16" s="22">
         <v>48</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="22">
         <v>6</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1584,15 +1588,15 @@
         <v>35</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="34">
+      <c r="D17" s="22">
         <v>48</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="22">
         <v>3</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35">
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1601,15 +1605,15 @@
         <v>36</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="34">
+      <c r="D18" s="22">
         <v>48</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="22">
         <v>5</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1618,15 +1622,15 @@
         <v>34</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="34">
+      <c r="D19" s="22">
         <v>48</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="22">
         <v>5</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1635,11 +1639,11 @@
         <v>3</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1648,11 +1652,11 @@
         <v>4</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1661,11 +1665,11 @@
         <v>5</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1674,11 +1678,11 @@
         <v>6</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1687,11 +1691,11 @@
         <v>7</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1700,11 +1704,11 @@
         <v>8</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1713,11 +1717,11 @@
         <v>9</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1726,11 +1730,11 @@
         <v>10</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1739,11 +1743,11 @@
         <v>11</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1752,11 +1756,11 @@
         <v>12</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1765,11 +1769,11 @@
         <v>13</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23">
         <v>0</v>
       </c>
     </row>

--- a/Gantt-projektplanlægger.xlsx
+++ b/Gantt-projektplanlægger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{69CB8AA2-1BCC-4B30-A743-A985B93270C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5A46FD-4A69-4E68-9A93-3CA4490BEB95}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{69CB8AA2-1BCC-4B30-A743-A985B93270C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E32F148A-E231-4F5A-898C-19B90D84A516}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,6 +642,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -651,9 +663,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -668,15 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -854,10 +854,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1094,7 +1090,7 @@
   <dimension ref="B1:BP30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1134,69 +1130,69 @@
         <v>1</v>
       </c>
       <c r="K2" s="13"/>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="14"/>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="33"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="36"/>
       <c r="W2" s="15"/>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="35"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="38"/>
       <c r="AA2" s="16"/>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
       <c r="AP2" s="20"/>
       <c r="AQ2" s="20"/>
     </row>
     <row r="3" spans="2:68" s="9" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="33" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -1223,8 +1219,8 @@
       <c r="AB3" s="8"/>
     </row>
     <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -1481,10 +1477,14 @@
       <c r="E10" s="22">
         <v>2</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="22">
+        <v>41</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
       <c r="H10" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:68" ht="51" x14ac:dyDescent="0.4">
@@ -1500,10 +1500,14 @@
       <c r="E11" s="22">
         <v>2</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="F11" s="22">
+        <v>41</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
       <c r="H11" s="23">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="2:68" ht="51" x14ac:dyDescent="0.4">
@@ -1519,10 +1523,14 @@
       <c r="E12" s="22">
         <v>2</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="22">
+        <v>41</v>
+      </c>
+      <c r="G12" s="22">
+        <v>2</v>
+      </c>
       <c r="H12" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="2:68" ht="68" x14ac:dyDescent="0.4">
@@ -1538,10 +1546,14 @@
       <c r="E13" s="22">
         <v>4</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="22">
+        <v>41</v>
+      </c>
+      <c r="G13" s="22">
+        <v>2</v>
+      </c>
       <c r="H13" s="23">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -1779,18 +1791,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AB2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BP31">
     <cfRule type="expression" dxfId="9" priority="2">

--- a/Gantt-projektplanlægger.xlsx
+++ b/Gantt-projektplanlægger.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69CB8AA2-1BCC-4B30-A743-A985B93270C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{69CB8AA2-1BCC-4B30-A743-A985B93270C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBA638FE-8365-4236-81FA-81020528FF3D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>Egne ideer</t>
   </si>
   <si>
-    <t>Grafisk brugergrænseflade</t>
-  </si>
-  <si>
     <t>Lagdeling af klasser</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Suad &amp; Frederik &amp; Kamma (Inventory??)</t>
+  </si>
+  <si>
+    <t>Udkast til design af grafik</t>
   </si>
 </sst>
 </file>
@@ -627,6 +627,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,9 +663,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -653,30 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1089,8 +1089,8 @@
   </sheetPr>
   <dimension ref="B1:BP30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1130,69 +1130,69 @@
         <v>1</v>
       </c>
       <c r="K2" s="13"/>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="28"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="14"/>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="28"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="36"/>
       <c r="W2" s="15"/>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="30"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="38"/>
       <c r="AA2" s="16"/>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
       <c r="AH2" s="17"/>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
       <c r="AP2" s="20"/>
       <c r="AQ2" s="20"/>
     </row>
     <row r="3" spans="2:68" s="9" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="33" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="18" t="s">
@@ -1219,13 +1219,13 @@
       <c r="AB3" s="8"/>
     </row>
     <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
       <c r="I4" s="3">
         <v>39</v>
       </c>
@@ -1382,23 +1382,23 @@
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="2:68" ht="21" x14ac:dyDescent="0.5">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="34">
+        <v>37</v>
+      </c>
+      <c r="D5" s="22">
         <v>39</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="22">
         <v>13</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="22">
         <v>39</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23">
         <v>0.05</v>
       </c>
     </row>
@@ -1407,61 +1407,73 @@
         <v>27</v>
       </c>
       <c r="C6" s="21"/>
-      <c r="D6" s="34">
+      <c r="D6" s="22">
         <v>39</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="22">
         <v>4</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35">
-        <v>0</v>
+      <c r="F6" s="22">
+        <v>39</v>
+      </c>
+      <c r="G6" s="22">
+        <v>3</v>
+      </c>
+      <c r="H6" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:68" ht="17" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35">
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="34">
+      <c r="D8" s="22">
         <v>41</v>
       </c>
-      <c r="E8" s="34">
-        <v>12</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="35">
-        <v>0</v>
+      <c r="E8" s="22">
+        <v>10</v>
+      </c>
+      <c r="F8" s="22">
+        <v>41</v>
+      </c>
+      <c r="G8" s="22">
+        <v>10</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="21"/>
-      <c r="D9" s="34">
-        <v>41</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="D9" s="22">
+        <v>40</v>
+      </c>
+      <c r="E9" s="22">
         <v>7</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35">
-        <v>0</v>
+      <c r="F9" s="22">
+        <v>40</v>
+      </c>
+      <c r="G9" s="22">
+        <v>7</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:68" ht="34" x14ac:dyDescent="0.4">
@@ -1469,18 +1481,22 @@
         <v>31</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="34">
+        <v>38</v>
+      </c>
+      <c r="D10" s="22">
         <v>41</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="22">
         <v>2</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="35">
-        <v>0</v>
+      <c r="F10" s="22">
+        <v>40</v>
+      </c>
+      <c r="G10" s="22">
+        <v>2</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:68" ht="51" x14ac:dyDescent="0.4">
@@ -1488,18 +1504,22 @@
         <v>32</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="34">
         <v>41</v>
       </c>
-      <c r="E11" s="34">
+      <c r="D11" s="22">
+        <v>41</v>
+      </c>
+      <c r="E11" s="22">
         <v>2</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35">
-        <v>0</v>
+      <c r="F11" s="22">
+        <v>40</v>
+      </c>
+      <c r="G11" s="22">
+        <v>4</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:68" ht="51" x14ac:dyDescent="0.4">
@@ -1507,18 +1527,20 @@
         <v>33</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="34">
+        <v>39</v>
+      </c>
+      <c r="D12" s="22">
         <v>43</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="22">
         <v>2</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35">
-        <v>0</v>
+      <c r="F12" s="22">
+        <v>43</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23">
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="2:68" ht="68" x14ac:dyDescent="0.4">
@@ -1526,107 +1548,115 @@
         <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="34">
+        <v>40</v>
+      </c>
+      <c r="D13" s="22">
         <v>45</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="22">
         <v>4</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35">
-        <v>0</v>
+      <c r="F13" s="22">
+        <v>43</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23">
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="35">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="35">
+      <c r="D15" s="24"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="34">
-        <v>48</v>
-      </c>
-      <c r="E16" s="34">
-        <v>6</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="35">
+      <c r="D16" s="22">
+        <v>46</v>
+      </c>
+      <c r="E16" s="22">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="51" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" ht="34" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="34">
-        <v>48</v>
-      </c>
-      <c r="E17" s="34">
-        <v>3</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="35">
+      <c r="D17" s="22">
+        <v>46</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="22">
+        <v>46</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="34">
-        <v>48</v>
-      </c>
-      <c r="E18" s="34">
-        <v>5</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="35">
-        <v>0</v>
+      <c r="D18" s="22">
+        <v>47</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="22">
+        <v>47</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23">
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C19" s="21"/>
-      <c r="D19" s="34">
-        <v>48</v>
-      </c>
-      <c r="E19" s="34">
-        <v>5</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="35">
+      <c r="D19" s="22">
+        <v>46</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
+        <v>46</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1635,11 +1665,11 @@
         <v>3</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="35">
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1648,11 +1678,11 @@
         <v>4</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1661,11 +1691,11 @@
         <v>5</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="35">
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1674,11 +1704,11 @@
         <v>6</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1687,11 +1717,11 @@
         <v>7</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35">
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1700,11 +1730,11 @@
         <v>8</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1713,11 +1743,11 @@
         <v>9</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1726,11 +1756,11 @@
         <v>10</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1739,11 +1769,11 @@
         <v>11</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="35">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1752,11 +1782,11 @@
         <v>12</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23">
         <v>0</v>
       </c>
     </row>
@@ -1765,28 +1795,28 @@
         <v>13</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="35">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AB2:AG2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AB2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="B31:BP31">
     <cfRule type="expression" dxfId="9" priority="2">
